--- a/dnf_dianquan.xlsx
+++ b/dnf_dianquan.xlsx
@@ -5,23 +5,23 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\whenguycan\share\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13110"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13110" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="3" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="5" r:id="rId2"/>
-    <sheet name="增幅" sheetId="8" r:id="rId3"/>
+    <sheet name="增幅" sheetId="8" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="9" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="54">
   <si>
     <t>手续费</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -238,30 +238,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>单位（￥/h）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每月</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每年</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>台数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>+7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -315,13 +291,41 @@
   <si>
     <t>6000</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WG</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>WG-&gt;Y</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROLE</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUM</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y/DAY</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y/MON</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y/YEAR</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -347,6 +351,13 @@
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -380,7 +391,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -395,6 +406,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -734,7 +751,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
@@ -877,7 +894,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B5">
         <f>A5*(1-M2/100)</f>
@@ -892,7 +909,7 @@
         <v>-132.85714285714312</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="G5">
         <f>F5*M6/100*(1-M2/100)</f>
@@ -912,7 +929,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B6">
         <f>A6*(1-M2/100)</f>
@@ -927,7 +944,7 @@
         <v>-102.85714285714312</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="G6">
         <f>F6*M6/100*(1-M2/100)</f>
@@ -1580,369 +1597,6 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:I19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="12" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="E4">
-        <v>8</v>
-      </c>
-      <c r="F4">
-        <v>10</v>
-      </c>
-      <c r="G4">
-        <f>C3*E4*F4</f>
-        <v>80</v>
-      </c>
-      <c r="H4">
-        <f>G4*30</f>
-        <v>2400</v>
-      </c>
-      <c r="I4">
-        <f>H4*12</f>
-        <v>28800</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="E5">
-        <v>8</v>
-      </c>
-      <c r="F5">
-        <v>15</v>
-      </c>
-      <c r="G5">
-        <f>C3*E5*F5</f>
-        <v>120</v>
-      </c>
-      <c r="H5">
-        <f t="shared" ref="H5:H11" si="0">G5*30</f>
-        <v>3600</v>
-      </c>
-      <c r="I5">
-        <f t="shared" ref="I5:I11" si="1">H5*12</f>
-        <v>43200</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="E6">
-        <v>8</v>
-      </c>
-      <c r="F6">
-        <v>20</v>
-      </c>
-      <c r="G6">
-        <f>C3*E6*F6</f>
-        <v>160</v>
-      </c>
-      <c r="H6">
-        <f t="shared" si="0"/>
-        <v>4800</v>
-      </c>
-      <c r="I6">
-        <f t="shared" si="1"/>
-        <v>57600</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="E7">
-        <v>8</v>
-      </c>
-      <c r="F7">
-        <v>25</v>
-      </c>
-      <c r="G7">
-        <f>C3*E7*F7</f>
-        <v>200</v>
-      </c>
-      <c r="H7">
-        <f t="shared" si="0"/>
-        <v>6000</v>
-      </c>
-      <c r="I7">
-        <f t="shared" si="1"/>
-        <v>72000</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="E8">
-        <v>12</v>
-      </c>
-      <c r="F8">
-        <v>10</v>
-      </c>
-      <c r="G8">
-        <f>C3*E8*F8</f>
-        <v>120</v>
-      </c>
-      <c r="H8">
-        <f t="shared" si="0"/>
-        <v>3600</v>
-      </c>
-      <c r="I8">
-        <f t="shared" si="1"/>
-        <v>43200</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="E9">
-        <v>12</v>
-      </c>
-      <c r="F9">
-        <v>15</v>
-      </c>
-      <c r="G9">
-        <f>C3*E9*F9</f>
-        <v>180</v>
-      </c>
-      <c r="H9">
-        <f t="shared" si="0"/>
-        <v>5400</v>
-      </c>
-      <c r="I9">
-        <f t="shared" si="1"/>
-        <v>64800</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="E10">
-        <v>12</v>
-      </c>
-      <c r="F10">
-        <v>20</v>
-      </c>
-      <c r="G10">
-        <f>C3*E10*F10</f>
-        <v>240</v>
-      </c>
-      <c r="H10">
-        <f t="shared" si="0"/>
-        <v>7200</v>
-      </c>
-      <c r="I10">
-        <f t="shared" si="1"/>
-        <v>86400</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="E11">
-        <v>12</v>
-      </c>
-      <c r="F11">
-        <v>25</v>
-      </c>
-      <c r="G11">
-        <f>C3*E11*F11</f>
-        <v>300</v>
-      </c>
-      <c r="H11">
-        <f t="shared" si="0"/>
-        <v>9000</v>
-      </c>
-      <c r="I11">
-        <f t="shared" si="1"/>
-        <v>108000</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="E12">
-        <v>8</v>
-      </c>
-      <c r="F12">
-        <v>5</v>
-      </c>
-      <c r="G12">
-        <f>C3*E12*F12</f>
-        <v>40</v>
-      </c>
-      <c r="H12">
-        <f>G12*30</f>
-        <v>1200</v>
-      </c>
-      <c r="I12">
-        <f>H12*12</f>
-        <v>14400</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="E13">
-        <v>16</v>
-      </c>
-      <c r="F13">
-        <v>10</v>
-      </c>
-      <c r="G13">
-        <f>C3*E13*F13</f>
-        <v>160</v>
-      </c>
-      <c r="H13">
-        <f t="shared" ref="H13:H19" si="2">G13*30</f>
-        <v>4800</v>
-      </c>
-      <c r="I13">
-        <f t="shared" ref="I13:I19" si="3">H13*12</f>
-        <v>57600</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <f>C3*E14*F14</f>
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <f>C3*E15*F15</f>
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <f>C3*E16*F16</f>
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <f>C3*E17*F17</f>
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <f>C3*E18*F18</f>
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <f>C3*E19*F19</f>
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1953,43 +1607,43 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="I1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="M1" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
@@ -2017,4 +1671,151 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:F9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+    </row>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B2" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="11"/>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B3" s="10">
+        <v>100</v>
+      </c>
+      <c r="C3" s="10">
+        <v>10000</v>
+      </c>
+      <c r="D3" s="10">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B5" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B6" s="10">
+        <v>8</v>
+      </c>
+      <c r="C6" s="10">
+        <v>10</v>
+      </c>
+      <c r="D6" s="10">
+        <f>B6*B3*C6/C3*D3</f>
+        <v>176</v>
+      </c>
+      <c r="E6">
+        <f>D6*30</f>
+        <v>5280</v>
+      </c>
+      <c r="F6">
+        <f>E6*12</f>
+        <v>63360</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B7" s="10">
+        <v>8</v>
+      </c>
+      <c r="C7" s="10">
+        <v>15</v>
+      </c>
+      <c r="D7" s="10">
+        <f>B7*B3*C7/C3*D3</f>
+        <v>264</v>
+      </c>
+      <c r="E7">
+        <f>D7*30</f>
+        <v>7920</v>
+      </c>
+      <c r="F7">
+        <f>E7*12</f>
+        <v>95040</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B8" s="10">
+        <v>8</v>
+      </c>
+      <c r="C8" s="10">
+        <v>20</v>
+      </c>
+      <c r="D8" s="10">
+        <f>B8*B3*C8/C3*D3</f>
+        <v>352</v>
+      </c>
+      <c r="E8">
+        <f>D8*30</f>
+        <v>10560</v>
+      </c>
+      <c r="F8">
+        <f>E8*12</f>
+        <v>126720</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B9" s="10">
+        <v>8</v>
+      </c>
+      <c r="C9" s="10">
+        <v>25</v>
+      </c>
+      <c r="D9" s="10">
+        <f>B9*B3*C9/C3*D3</f>
+        <v>440</v>
+      </c>
+      <c r="E9">
+        <f>D9*30</f>
+        <v>13200</v>
+      </c>
+      <c r="F9">
+        <f>E9*12</f>
+        <v>158400</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/dnf_dianquan.xlsx
+++ b/dnf_dianquan.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13110" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13110" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="3" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="55">
   <si>
     <t>手续费</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -319,6 +319,10 @@
   <si>
     <t>Y/YEAR</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>+12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -399,6 +403,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -407,9 +414,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -762,18 +766,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="F1" s="8" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="F1" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
@@ -1314,12 +1318,12 @@
       <c r="A18" s="3"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
@@ -1597,15 +1601,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>35</v>
       </c>
@@ -1645,8 +1649,11 @@
       <c r="M1" s="4" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N1" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="G2">
         <v>18</v>
       </c>
@@ -1664,6 +1671,9 @@
       </c>
       <c r="M2">
         <v>74</v>
+      </c>
+      <c r="N2">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -1677,19 +1687,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
     </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="7" t="s">
         <v>47</v>
       </c>
       <c r="C2" s="11" t="s">
@@ -1698,46 +1708,46 @@
       <c r="D2" s="11"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B3" s="10">
+      <c r="B3" s="7">
         <v>100</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="7">
         <v>10000</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="7">
         <v>220</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="7" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B6" s="10">
+      <c r="B6" s="7">
         <v>8</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="7">
         <v>10</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="7">
         <f>B6*B3*C6/C3*D3</f>
         <v>176</v>
       </c>
@@ -1751,13 +1761,13 @@
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B7" s="10">
+      <c r="B7" s="7">
         <v>8</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="7">
         <v>15</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="7">
         <f>B7*B3*C7/C3*D3</f>
         <v>264</v>
       </c>
@@ -1771,13 +1781,13 @@
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B8" s="10">
+      <c r="B8" s="7">
         <v>8</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="7">
         <v>20</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="7">
         <f>B8*B3*C8/C3*D3</f>
         <v>352</v>
       </c>
@@ -1791,13 +1801,13 @@
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B9" s="10">
+      <c r="B9" s="7">
         <v>8</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="7">
         <v>25</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="7">
         <f>B9*B3*C9/C3*D3</f>
         <v>440</v>
       </c>
